--- a/change/归档/2023_小王同学_目标九宫格.xlsx
+++ b/change/归档/2023_小王同学_目标九宫格.xlsx
@@ -5,25 +5,26 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\weekly\2023\01-目标九宫格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\do-book\change\归档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="7月" sheetId="8" r:id="rId1"/>
-    <sheet name="6月" sheetId="7" r:id="rId2"/>
-    <sheet name="5月" sheetId="6" r:id="rId3"/>
-    <sheet name="4月" sheetId="5" r:id="rId4"/>
-    <sheet name="九宫格1" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="6月" sheetId="7" r:id="rId3"/>
+    <sheet name="5月" sheetId="6" r:id="rId4"/>
+    <sheet name="4月" sheetId="5" r:id="rId5"/>
+    <sheet name="九宫格1" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'4月'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'5月'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'6月'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'4月'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'5月'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'6月'!$A$1:$C$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'7月'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">九宫格1!$A$1:$C$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">九宫格1!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>目标九宫格</t>
   </si>
@@ -398,6 +399,234 @@
 2 手机流程：不学任何东西，看任何东西。
 2 手机流程
 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作·事业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成长</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>突破</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>休闲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事业</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家庭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生活</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健康</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>社群</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,6 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1107,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="A4:C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1150,9 +1380,9 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="63" customHeight="1">
+    <row r="5" spans="1:10" ht="32.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -1225,6 +1455,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
@@ -1345,7 +1652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
@@ -1466,7 +1773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
@@ -1587,7 +1894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:J48"/>
